--- a/DataTest/Data_API_Khám_bệnh.xlsx
+++ b/DataTest/Data_API_Khám_bệnh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HIS api automation\DataTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Truc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC29121-DD56-433D-AAD6-746C2E4536D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8497DFC-02D3-4B78-A0A9-5A6466F8F0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="2604" windowWidth="18984" windowHeight="8880" xr2:uid="{30014CD4-9A19-4485-A89C-2684CE7F1355}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7A137F98-0BBA-4431-A6F3-B324DFC003E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,142 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="94">
+  <si>
+    <t>MedServiceId</t>
+  </si>
+  <si>
+    <t>DxSymptom</t>
+  </si>
+  <si>
+    <t>InitialDxICD</t>
+  </si>
+  <si>
+    <t>InitialDxText</t>
+  </si>
+  <si>
+    <t>DxICD</t>
+  </si>
+  <si>
+    <t>DxText</t>
+  </si>
+  <si>
+    <t>DxByStaffId</t>
+  </si>
+  <si>
+    <t>TxInstruction</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>PriceId</t>
+  </si>
+  <si>
+    <t>MedRcdNo</t>
+  </si>
+  <si>
+    <t>IcdCode</t>
+  </si>
+  <si>
+    <t>ICDReason</t>
+  </si>
+  <si>
+    <t>TxVisitId</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>VisitEntryId</t>
+  </si>
+  <si>
+    <t>CreateByStaffName</t>
+  </si>
+  <si>
+    <t>PxItems</t>
+  </si>
+  <si>
+    <t>ServiceId</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>TypeL1</t>
+  </si>
+  <si>
+    <t>TypeL2</t>
+  </si>
+  <si>
+    <t>TypeL3</t>
+  </si>
+  <si>
+    <t>TypeL4</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>InsServiceName</t>
+  </si>
+  <si>
+    <t>NationalCode</t>
+  </si>
+  <si>
+    <t>InsPrice</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>ServiceGroupName</t>
+  </si>
+  <si>
+    <t>LabExams</t>
+  </si>
+  <si>
+    <t>CreatedBy</t>
+  </si>
+  <si>
+    <t>ContentHash</t>
+  </si>
+  <si>
+    <t>IsPassOnWarning</t>
+  </si>
+  <si>
+    <t>Bệnh tả, không đặc hiệu</t>
+  </si>
+  <si>
+    <t>A00.9</t>
+  </si>
+  <si>
+    <t>knt1</t>
+  </si>
+  <si>
+    <t>Lần</t>
+  </si>
+  <si>
+    <t>Khám Nội Tiết 1</t>
+  </si>
+  <si>
+    <t>Khám Nội tiết</t>
+  </si>
+  <si>
+    <t>17437|983307|149|10/05/2024 01:02|A00.9|Bệnh tả, không đặc hiệu|3839|3|10/05/2024 01:02|3839||||PendingProcessing|4803|80||Bệnh tả, không đặc hiệu|2|1083660|13||</t>
+  </si>
   <si>
     <t>RefNo</t>
   </si>
@@ -44,30 +179,12 @@
     <t>LabReqNotes</t>
   </si>
   <si>
-    <t>Attribute</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>LabExId</t>
   </si>
   <si>
-    <t>MedServiceId</t>
-  </si>
-  <si>
-    <t>PriceId</t>
-  </si>
-  <si>
     <t>Qty</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>InsPrice</t>
-  </si>
-  <si>
     <t>InsPriceRatio</t>
   </si>
   <si>
@@ -98,9 +215,6 @@
     <t>ByProviderName</t>
   </si>
   <si>
-    <t>ServiceGroupName</t>
-  </si>
-  <si>
     <t>ServiceTypeL3Name</t>
   </si>
   <si>
@@ -167,6 +281,9 @@
     <t>ReqBy</t>
   </si>
   <si>
+    <t>FullAddress</t>
+  </si>
+  <si>
     <t>Re</t>
   </si>
   <si>
@@ -194,7 +311,13 @@
     <t>Chờ thanh toán</t>
   </si>
   <si>
-    <t>FullAddress</t>
+    <t>Quách Bảo Hưng</t>
+  </si>
+  <si>
+    <t>Attribute1</t>
+  </si>
+  <si>
+    <t>Attribute2</t>
   </si>
 </sst>
 </file>
@@ -210,12 +333,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -230,8 +371,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,140 +689,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C64953-D18A-4D89-9257-7144751753F2}">
-  <dimension ref="A1:AR3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D377DE53-CCB9-4C13-9CB8-315A2AA61C2E}">
+  <dimension ref="A1:CD121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BC3" sqref="BC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.88671875" style="3"/>
+    <col min="29" max="29" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="150.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.6640625" customWidth="1"/>
+    <col min="63" max="63" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AE1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
       </c>
       <c r="AH1" t="s">
         <v>33</v>
@@ -692,243 +836,900 @@
       <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AM1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2">
+        <v>3839</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>17437</v>
+      </c>
+      <c r="O2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2">
+        <v>4803</v>
+      </c>
+      <c r="R2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="S2">
+        <v>13</v>
+      </c>
+      <c r="T2">
+        <v>13</v>
+      </c>
+      <c r="U2">
+        <v>30</v>
+      </c>
+      <c r="V2">
+        <v>130</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="Z2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="AA2" t="s">
         <v>43</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>392</v>
-      </c>
-      <c r="G2">
-        <v>1084741</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>68300</v>
-      </c>
-      <c r="J2">
-        <v>68300</v>
-      </c>
-      <c r="K2">
-        <v>100</v>
-      </c>
-      <c r="L2">
-        <v>552</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-      <c r="O2">
-        <v>6</v>
-      </c>
-      <c r="P2">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" t="s">
-        <v>47</v>
-      </c>
-      <c r="W2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>51</v>
+      <c r="AB2">
+        <v>1024</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>7.1897000000000002</v>
       </c>
       <c r="AD2">
         <v>1</v>
       </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
+      <c r="AE2">
+        <v>37500</v>
+      </c>
+      <c r="AF2">
+        <v>37500</v>
+      </c>
+      <c r="AG2">
+        <v>1083660</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>392</v>
+      </c>
+      <c r="AS2">
+        <v>1084741</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>68300</v>
+      </c>
+      <c r="AV2">
+        <v>68300</v>
+      </c>
+      <c r="AW2">
+        <v>100</v>
+      </c>
+      <c r="AX2">
+        <v>552</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>2</v>
+      </c>
+      <c r="BA2">
+        <v>6</v>
+      </c>
+      <c r="BB2">
+        <v>25</v>
+      </c>
+      <c r="BC2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
         <v>13660</v>
       </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
         <v>54640</v>
       </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3">
+        <v>3839</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>17437</v>
+      </c>
+      <c r="O3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3">
+        <v>4803</v>
+      </c>
+      <c r="R3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3">
+        <v>13</v>
+      </c>
+      <c r="T3">
+        <v>13</v>
+      </c>
+      <c r="U3">
+        <v>30</v>
+      </c>
+      <c r="V3">
+        <v>130</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA3" t="s">
         <v>43</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>392</v>
-      </c>
-      <c r="G3">
-        <v>1084741</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>68300</v>
-      </c>
-      <c r="J3">
-        <v>68300</v>
-      </c>
-      <c r="K3">
-        <v>100</v>
-      </c>
-      <c r="L3">
-        <v>552</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>6</v>
-      </c>
-      <c r="P3">
-        <v>25</v>
-      </c>
-      <c r="Q3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>51</v>
+      <c r="AB3">
+        <v>1024</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>7.1897000000000002</v>
       </c>
       <c r="AD3">
         <v>1</v>
       </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
+      <c r="AE3">
+        <v>37500</v>
+      </c>
+      <c r="AF3">
+        <v>37500</v>
+      </c>
+      <c r="AG3">
+        <v>1083660</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>392</v>
+      </c>
+      <c r="AS3">
+        <v>1084741</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>68300</v>
+      </c>
+      <c r="AV3">
+        <v>68300</v>
+      </c>
+      <c r="AW3">
+        <v>100</v>
+      </c>
+      <c r="AX3">
+        <v>552</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>2</v>
+      </c>
+      <c r="BA3">
+        <v>6</v>
+      </c>
+      <c r="BB3">
+        <v>25</v>
+      </c>
+      <c r="BC3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>1</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
         <v>13660</v>
       </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
         <v>54640</v>
       </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="AB4"/>
+    </row>
+    <row r="5" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="AB5"/>
+    </row>
+    <row r="6" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="AB6"/>
+    </row>
+    <row r="7" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="AB7"/>
+    </row>
+    <row r="8" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="AB8"/>
+    </row>
+    <row r="9" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="AB9"/>
+    </row>
+    <row r="10" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="AB10"/>
+    </row>
+    <row r="11" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="AB11"/>
+    </row>
+    <row r="12" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="AB12"/>
+    </row>
+    <row r="13" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="AB13"/>
+    </row>
+    <row r="14" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="AB14"/>
+    </row>
+    <row r="15" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="AB15"/>
+    </row>
+    <row r="16" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="AB16"/>
+    </row>
+    <row r="17" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB17"/>
+    </row>
+    <row r="18" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB18"/>
+    </row>
+    <row r="19" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB19"/>
+    </row>
+    <row r="20" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB20"/>
+    </row>
+    <row r="21" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB21"/>
+    </row>
+    <row r="22" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB22"/>
+    </row>
+    <row r="23" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB23"/>
+    </row>
+    <row r="24" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB24"/>
+    </row>
+    <row r="25" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB25"/>
+    </row>
+    <row r="26" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB26"/>
+    </row>
+    <row r="27" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB27"/>
+    </row>
+    <row r="28" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB28"/>
+    </row>
+    <row r="29" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB29"/>
+    </row>
+    <row r="30" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB30"/>
+    </row>
+    <row r="31" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB31"/>
+    </row>
+    <row r="32" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB32"/>
+    </row>
+    <row r="33" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB33"/>
+    </row>
+    <row r="34" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB34"/>
+    </row>
+    <row r="35" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB35"/>
+    </row>
+    <row r="36" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB36"/>
+    </row>
+    <row r="37" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB37"/>
+    </row>
+    <row r="38" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB38"/>
+    </row>
+    <row r="39" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB39"/>
+    </row>
+    <row r="40" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB40"/>
+    </row>
+    <row r="41" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB41"/>
+    </row>
+    <row r="42" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB42"/>
+    </row>
+    <row r="43" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB43"/>
+    </row>
+    <row r="44" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB44"/>
+    </row>
+    <row r="45" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB45"/>
+    </row>
+    <row r="46" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB46"/>
+    </row>
+    <row r="47" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB47"/>
+    </row>
+    <row r="48" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB48"/>
+    </row>
+    <row r="49" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB49"/>
+    </row>
+    <row r="50" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB50"/>
+    </row>
+    <row r="51" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB51"/>
+    </row>
+    <row r="52" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB52"/>
+    </row>
+    <row r="53" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB53"/>
+    </row>
+    <row r="54" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB54"/>
+    </row>
+    <row r="55" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB55"/>
+    </row>
+    <row r="56" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB56"/>
+    </row>
+    <row r="57" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB57"/>
+    </row>
+    <row r="58" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB58"/>
+    </row>
+    <row r="59" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB59"/>
+    </row>
+    <row r="60" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB60"/>
+    </row>
+    <row r="61" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB61"/>
+    </row>
+    <row r="62" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB62"/>
+    </row>
+    <row r="63" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB63"/>
+    </row>
+    <row r="64" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB64"/>
+    </row>
+    <row r="65" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB65"/>
+    </row>
+    <row r="66" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB66"/>
+    </row>
+    <row r="67" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB67"/>
+    </row>
+    <row r="68" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB68"/>
+    </row>
+    <row r="69" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB69"/>
+    </row>
+    <row r="70" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB70"/>
+    </row>
+    <row r="71" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB71"/>
+    </row>
+    <row r="72" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB72"/>
+    </row>
+    <row r="73" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB73"/>
+    </row>
+    <row r="74" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB74"/>
+    </row>
+    <row r="75" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB75"/>
+    </row>
+    <row r="76" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB76"/>
+    </row>
+    <row r="77" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB77"/>
+    </row>
+    <row r="78" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB78"/>
+    </row>
+    <row r="79" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB79"/>
+    </row>
+    <row r="80" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB80"/>
+    </row>
+    <row r="81" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB81"/>
+    </row>
+    <row r="82" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB82"/>
+    </row>
+    <row r="83" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB83"/>
+    </row>
+    <row r="84" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB84"/>
+    </row>
+    <row r="85" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB85"/>
+    </row>
+    <row r="86" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB86"/>
+    </row>
+    <row r="87" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB87"/>
+    </row>
+    <row r="88" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB88"/>
+    </row>
+    <row r="89" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB89"/>
+    </row>
+    <row r="90" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB90"/>
+    </row>
+    <row r="91" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB91"/>
+    </row>
+    <row r="92" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB92"/>
+    </row>
+    <row r="93" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB93"/>
+    </row>
+    <row r="94" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB94"/>
+    </row>
+    <row r="95" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB95"/>
+    </row>
+    <row r="96" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB96"/>
+    </row>
+    <row r="97" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB97"/>
+    </row>
+    <row r="98" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB98"/>
+    </row>
+    <row r="99" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB99"/>
+    </row>
+    <row r="100" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB100"/>
+    </row>
+    <row r="101" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB101"/>
+    </row>
+    <row r="102" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB102"/>
+    </row>
+    <row r="103" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB103"/>
+    </row>
+    <row r="104" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB104"/>
+    </row>
+    <row r="105" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB105"/>
+    </row>
+    <row r="106" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB106"/>
+    </row>
+    <row r="107" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB107"/>
+    </row>
+    <row r="108" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB108"/>
+    </row>
+    <row r="109" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB109"/>
+    </row>
+    <row r="110" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB110"/>
+    </row>
+    <row r="111" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB111"/>
+    </row>
+    <row r="112" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB112"/>
+    </row>
+    <row r="113" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB113"/>
+    </row>
+    <row r="114" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB114"/>
+    </row>
+    <row r="115" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB115"/>
+    </row>
+    <row r="116" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB116"/>
+    </row>
+    <row r="117" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB117"/>
+    </row>
+    <row r="118" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB118"/>
+    </row>
+    <row r="119" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB119"/>
+    </row>
+    <row r="120" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB120"/>
+    </row>
+    <row r="121" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB121"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataTest/Data_API_Khám_bệnh.xlsx
+++ b/DataTest/Data_API_Khám_bệnh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Truc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HIS api automation\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8497DFC-02D3-4B78-A0A9-5A6466F8F0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE34CDC4-323D-4591-9FE6-94219DB36FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7A137F98-0BBA-4431-A6F3-B324DFC003E1}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="18984" windowHeight="8880" xr2:uid="{7A137F98-0BBA-4431-A6F3-B324DFC003E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
   <si>
     <t>MedServiceId</t>
   </si>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D377DE53-CCB9-4C13-9CB8-315A2AA61C2E}">
   <dimension ref="A1:CD121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BC3" sqref="BC3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BW8" sqref="BW8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1174,205 +1174,11 @@
       </c>
     </row>
     <row r="3" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3">
-        <v>3839</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>17437</v>
-      </c>
-      <c r="O3" t="s">
-        <v>91</v>
-      </c>
       <c r="P3" s="2"/>
-      <c r="Q3">
-        <v>4803</v>
-      </c>
-      <c r="R3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3">
-        <v>13</v>
-      </c>
-      <c r="T3">
-        <v>13</v>
-      </c>
-      <c r="U3">
-        <v>30</v>
-      </c>
-      <c r="V3">
-        <v>130</v>
-      </c>
-      <c r="W3">
-        <v>2</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB3">
-        <v>1024</v>
-      </c>
-      <c r="AC3">
-        <v>7.1897000000000002</v>
-      </c>
-      <c r="AD3">
-        <v>1</v>
-      </c>
-      <c r="AE3">
-        <v>37500</v>
-      </c>
-      <c r="AF3">
-        <v>37500</v>
-      </c>
-      <c r="AG3">
-        <v>1083660</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO3">
-        <v>1</v>
-      </c>
-      <c r="AP3">
-        <v>1</v>
-      </c>
-      <c r="AQ3">
-        <v>1</v>
-      </c>
-      <c r="AR3">
-        <v>392</v>
-      </c>
-      <c r="AS3">
-        <v>1084741</v>
-      </c>
-      <c r="AT3">
-        <v>1</v>
-      </c>
-      <c r="AU3">
-        <v>68300</v>
-      </c>
-      <c r="AV3">
-        <v>68300</v>
-      </c>
-      <c r="AW3">
-        <v>100</v>
-      </c>
-      <c r="AX3">
-        <v>552</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>2</v>
-      </c>
-      <c r="BA3">
-        <v>6</v>
-      </c>
-      <c r="BB3">
-        <v>25</v>
-      </c>
-      <c r="BC3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>89</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>90</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>90</v>
-      </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
-      <c r="BP3">
-        <v>1</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3">
-        <v>0</v>
-      </c>
-      <c r="BW3">
-        <v>0</v>
-      </c>
-      <c r="BX3">
-        <v>13660</v>
-      </c>
-      <c r="BY3">
-        <v>0</v>
-      </c>
-      <c r="BZ3">
-        <v>54640</v>
-      </c>
-      <c r="CA3">
-        <v>0</v>
-      </c>
-      <c r="CB3">
-        <v>0</v>
-      </c>
+      <c r="AB3"/>
     </row>
     <row r="4" spans="1:82" x14ac:dyDescent="0.3">
       <c r="AB4"/>

--- a/DataTest/Data_API_Khám_bệnh.xlsx
+++ b/DataTest/Data_API_Khám_bệnh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CD6"/>
+  <dimension ref="A1:CD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1357,774 +1357,6 @@
       <c r="CC3" t="inlineStr"/>
       <c r="CD3" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Bệnh tả, không đặc hiệu</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>A00.9</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Bệnh tả, không đặc hiệu</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>A00.9</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Bệnh tả, không đặc hiệu</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3839</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="n">
-        <v>17437</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Quách Bảo Hưng</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="n">
-        <v>4803</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>knt1</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v>13</v>
-      </c>
-      <c r="T4" t="n">
-        <v>13</v>
-      </c>
-      <c r="U4" t="n">
-        <v>30</v>
-      </c>
-      <c r="V4" t="n">
-        <v>130</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Lần</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>Khám Nội Tiết 1</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>Khám Nội tiết</t>
-        </is>
-      </c>
-      <c r="AB4" t="n">
-        <v>1024</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.1897</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>37500</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>37500</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1083660</v>
-      </c>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>17437|983307|149|10/05/2024 01:02|A00.9|Bệnh tả, không đặc hiệu|3839|3|10/05/2024 01:02|3839||||PendingProcessing|4803|80||Bệnh tả, không đặc hiệu|2|1083660|13||</t>
-        </is>
-      </c>
-      <c r="AL4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>Re</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>392</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>1084741</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>68300</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>68300</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>552</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>25</v>
-      </c>
-      <c r="BC4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD4" t="inlineStr"/>
-      <c r="BE4" t="inlineStr">
-        <is>
-          <t>XQ1</t>
-        </is>
-      </c>
-      <c r="BF4" t="inlineStr">
-        <is>
-          <t>Phòng X quang</t>
-        </is>
-      </c>
-      <c r="BG4" t="inlineStr">
-        <is>
-          <t>Chẩn đoán hình ảnh</t>
-        </is>
-      </c>
-      <c r="BH4" t="inlineStr">
-        <is>
-          <t>X-Quang</t>
-        </is>
-      </c>
-      <c r="BI4" t="inlineStr">
-        <is>
-          <t>xqm242</t>
-        </is>
-      </c>
-      <c r="BJ4" t="inlineStr">
-        <is>
-          <t>Chụp Xquang cột sống cổ chếch hai bên</t>
-        </is>
-      </c>
-      <c r="BK4" t="inlineStr">
-        <is>
-          <t>BHYT</t>
-        </is>
-      </c>
-      <c r="BL4" t="inlineStr"/>
-      <c r="BM4" t="inlineStr">
-        <is>
-          <t>Chờ thanh toán</t>
-        </is>
-      </c>
-      <c r="BN4" t="inlineStr">
-        <is>
-          <t>Chờ thanh toán</t>
-        </is>
-      </c>
-      <c r="BO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ4" t="inlineStr"/>
-      <c r="BR4" t="inlineStr"/>
-      <c r="BS4" t="inlineStr"/>
-      <c r="BT4" t="inlineStr"/>
-      <c r="BU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>13660</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>54640</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC4" t="inlineStr"/>
-      <c r="CD4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Bệnh tả, không đặc hiệu</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>A00.9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Bệnh tả, không đặc hiệu</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>A00.9</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Bệnh tả, không đặc hiệu</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3839</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="n">
-        <v>17437</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Quách Bảo Hưng</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
-        <v>4803</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>knt1</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v>13</v>
-      </c>
-      <c r="T5" t="n">
-        <v>13</v>
-      </c>
-      <c r="U5" t="n">
-        <v>30</v>
-      </c>
-      <c r="V5" t="n">
-        <v>130</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Lần</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>Khám Nội Tiết 1</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>Khám Nội tiết</t>
-        </is>
-      </c>
-      <c r="AB5" t="n">
-        <v>1024</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.1897</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>37500</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>37500</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1083660</v>
-      </c>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>17437|983307|149|10/05/2024 01:02|A00.9|Bệnh tả, không đặc hiệu|3839|3|10/05/2024 01:02|3839||||PendingProcessing|4803|80||Bệnh tả, không đặc hiệu|2|1083660|13||</t>
-        </is>
-      </c>
-      <c r="AL5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>Re</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>392</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>1084741</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>68300</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>68300</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>552</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>25</v>
-      </c>
-      <c r="BC5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD5" t="inlineStr"/>
-      <c r="BE5" t="inlineStr">
-        <is>
-          <t>XQ1</t>
-        </is>
-      </c>
-      <c r="BF5" t="inlineStr">
-        <is>
-          <t>Phòng X quang</t>
-        </is>
-      </c>
-      <c r="BG5" t="inlineStr">
-        <is>
-          <t>Chẩn đoán hình ảnh</t>
-        </is>
-      </c>
-      <c r="BH5" t="inlineStr">
-        <is>
-          <t>X-Quang</t>
-        </is>
-      </c>
-      <c r="BI5" t="inlineStr">
-        <is>
-          <t>xqm242</t>
-        </is>
-      </c>
-      <c r="BJ5" t="inlineStr">
-        <is>
-          <t>Chụp Xquang cột sống cổ chếch hai bên</t>
-        </is>
-      </c>
-      <c r="BK5" t="inlineStr">
-        <is>
-          <t>BHYT</t>
-        </is>
-      </c>
-      <c r="BL5" t="inlineStr"/>
-      <c r="BM5" t="inlineStr">
-        <is>
-          <t>Chờ thanh toán</t>
-        </is>
-      </c>
-      <c r="BN5" t="inlineStr">
-        <is>
-          <t>Chờ thanh toán</t>
-        </is>
-      </c>
-      <c r="BO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ5" t="inlineStr"/>
-      <c r="BR5" t="inlineStr"/>
-      <c r="BS5" t="inlineStr"/>
-      <c r="BT5" t="inlineStr"/>
-      <c r="BU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>13660</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>54640</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC5" t="inlineStr"/>
-      <c r="CD5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Bệnh tả, không đặc hiệu</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>A00.9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Bệnh tả, không đặc hiệu</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>A00.9</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Bệnh tả, không đặc hiệu</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3839</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="n">
-        <v>17437</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Quách Bảo Hưng</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>4803</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>knt1</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v>13</v>
-      </c>
-      <c r="T6" t="n">
-        <v>13</v>
-      </c>
-      <c r="U6" t="n">
-        <v>30</v>
-      </c>
-      <c r="V6" t="n">
-        <v>130</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>Lần</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>Khám Nội Tiết 1</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>Khám Nội tiết</t>
-        </is>
-      </c>
-      <c r="AB6" t="n">
-        <v>1024</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.1897</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>37500</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>37500</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1083660</v>
-      </c>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>17437|983307|149|10/05/2024 01:02|A00.9|Bệnh tả, không đặc hiệu|3839|3|10/05/2024 01:02|3839||||PendingProcessing|4803|80||Bệnh tả, không đặc hiệu|2|1083660|13||</t>
-        </is>
-      </c>
-      <c r="AL6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Re</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>392</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>1084741</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>68300</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>68300</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>552</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>25</v>
-      </c>
-      <c r="BC6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD6" t="inlineStr"/>
-      <c r="BE6" t="inlineStr">
-        <is>
-          <t>XQ1</t>
-        </is>
-      </c>
-      <c r="BF6" t="inlineStr">
-        <is>
-          <t>Phòng X quang</t>
-        </is>
-      </c>
-      <c r="BG6" t="inlineStr">
-        <is>
-          <t>Chẩn đoán hình ảnh</t>
-        </is>
-      </c>
-      <c r="BH6" t="inlineStr">
-        <is>
-          <t>X-Quang</t>
-        </is>
-      </c>
-      <c r="BI6" t="inlineStr">
-        <is>
-          <t>xqm242</t>
-        </is>
-      </c>
-      <c r="BJ6" t="inlineStr">
-        <is>
-          <t>Chụp Xquang cột sống cổ chếch hai bên</t>
-        </is>
-      </c>
-      <c r="BK6" t="inlineStr">
-        <is>
-          <t>BHYT</t>
-        </is>
-      </c>
-      <c r="BL6" t="inlineStr"/>
-      <c r="BM6" t="inlineStr">
-        <is>
-          <t>Chờ thanh toán</t>
-        </is>
-      </c>
-      <c r="BN6" t="inlineStr">
-        <is>
-          <t>Chờ thanh toán</t>
-        </is>
-      </c>
-      <c r="BO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ6" t="inlineStr"/>
-      <c r="BR6" t="inlineStr"/>
-      <c r="BS6" t="inlineStr"/>
-      <c r="BT6" t="inlineStr"/>
-      <c r="BU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>13660</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>54640</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC6" t="inlineStr"/>
-      <c r="CD6" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DataTest/Data_API_Khám_bệnh.xlsx
+++ b/DataTest/Data_API_Khám_bệnh.xlsx
@@ -953,7 +953,7 @@
         <v>37500</v>
       </c>
       <c r="AG2" t="n">
-        <v>1083660</v>
+        <v>1094172</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -982,19 +982,19 @@
         <v>1</v>
       </c>
       <c r="AR2" t="n">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="AS2" t="n">
-        <v>1084741</v>
+        <v>1095239</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
       </c>
       <c r="AU2" t="n">
-        <v>68300</v>
+        <v>624000</v>
       </c>
       <c r="AV2" t="n">
-        <v>68300</v>
+        <v>624000</v>
       </c>
       <c r="AW2" t="n">
         <v>100</v>
@@ -1040,12 +1040,12 @@
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>xqm242</t>
+          <t>xq03</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>Chụp Xquang cột sống cổ chếch hai bên</t>
+          <t>Chụp Xquang bể thận-niệu quản xuôi dòng [Số hóa]</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
@@ -1084,13 +1084,13 @@
         <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>13660</v>
+        <v>124800</v>
       </c>
       <c r="BY2" t="n">
         <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>54640</v>
+        <v>499200</v>
       </c>
       <c r="CA2" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>37500</v>
       </c>
       <c r="AG3" t="n">
-        <v>1083660</v>
+        <v>1094172</v>
       </c>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
@@ -1238,19 +1238,19 @@
         <v>1</v>
       </c>
       <c r="AR3" t="n">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="AS3" t="n">
-        <v>1084741</v>
+        <v>1095239</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
       </c>
       <c r="AU3" t="n">
-        <v>68300</v>
+        <v>624000</v>
       </c>
       <c r="AV3" t="n">
-        <v>68300</v>
+        <v>624000</v>
       </c>
       <c r="AW3" t="n">
         <v>100</v>
@@ -1296,12 +1296,12 @@
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>xqm242</t>
+          <t>xq03</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>Chụp Xquang cột sống cổ chếch hai bên</t>
+          <t>Chụp Xquang bể thận-niệu quản xuôi dòng [Số hóa]</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1340,13 +1340,13 @@
         <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>13660</v>
+        <v>124800</v>
       </c>
       <c r="BY3" t="n">
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>54640</v>
+        <v>499200</v>
       </c>
       <c r="CA3" t="n">
         <v>0</v>
